--- a/team03.xlsx
+++ b/team03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lhuedu-my.sharepoint.com/personal/d1094181709_o365_lhu_edu_tw/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="13_ncr:1_{87D2B468-D465-4201-971A-28DA04467A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB7877AF-A952-4257-90D0-19DC361EF7CC}"/>
+  <xr:revisionPtr revIDLastSave="129" documentId="13_ncr:1_{87D2B468-D465-4201-971A-28DA04467A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D15661A0-980D-40F8-B301-F3106723DF28}"/>
   <bookViews>
-    <workbookView xWindow="38295" yWindow="0" windowWidth="38610" windowHeight="20985" activeTab="1" xr2:uid="{5D2D1BDE-CEC4-41FF-8566-6B075720DC63}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="2" activeTab="4" xr2:uid="{5D2D1BDE-CEC4-41FF-8566-6B075720DC63}"/>
   </bookViews>
   <sheets>
     <sheet name="車款" sheetId="6" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="路由(routes)及視圖(views)" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41201,7 +41202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6831679-817A-4DC3-B916-0662C6DF6F4B}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C16"/>
     </sheetView>
   </sheetViews>
@@ -41949,8 +41950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBDD5E6-0827-492A-B40E-0AE6B62CE499}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -42369,7 +42370,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.25" defaultRowHeight="16.5"/>

--- a/team03.xlsx
+++ b/team03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lhuedu-my.sharepoint.com/personal/d1094181709_o365_lhu_edu_tw/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\team03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="129" documentId="13_ncr:1_{87D2B468-D465-4201-971A-28DA04467A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D15661A0-980D-40F8-B301-F3106723DF28}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAF7186-FDD7-469B-8BA1-4DE31F671E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="2" activeTab="4" xr2:uid="{5D2D1BDE-CEC4-41FF-8566-6B075720DC63}"/>
+    <workbookView xWindow="-28920" yWindow="-6330" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{5D2D1BDE-CEC4-41FF-8566-6B075720DC63}"/>
   </bookViews>
   <sheets>
     <sheet name="車款" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="路由(routes)及視圖(views)" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1766,9 +1765,6 @@
   </si>
   <si>
     <t>車商</t>
-  </si>
-  <si>
-    <t>store</t>
   </si>
   <si>
     <t>VARCHAR(191)</t>
@@ -3388,6 +3384,10 @@
       <t>.index</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3448,6 +3448,8 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="PMingLiu"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="9"/>
@@ -4010,10 +4012,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
@@ -4317,16 +4315,16 @@
       <selection activeCell="A2" sqref="A2:A1316"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="88.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="88.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -41206,12 +41204,12 @@
       <selection activeCell="C2" sqref="C2:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="98.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="98.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -41255,7 +41253,7 @@
         <v>463</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>501</v>
@@ -41581,16 +41579,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C254D5-B187-4B1C-8F95-45AFB5753765}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="4" width="16.25" customWidth="1"/>
-    <col min="6" max="6" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -41638,10 +41636,10 @@
         <v>561</v>
       </c>
       <c r="B3" t="s">
+        <v>675</v>
+      </c>
+      <c r="C3" t="s">
         <v>562</v>
-      </c>
-      <c r="C3" t="s">
-        <v>563</v>
       </c>
       <c r="E3" t="s">
         <v>559</v>
@@ -41652,10 +41650,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E4" t="s">
         <v>559</v>
@@ -41666,7 +41664,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C5" t="s">
         <v>557</v>
@@ -41683,7 +41681,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C6" t="s">
         <v>557</v>
@@ -41697,13 +41695,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="B7" t="s">
         <v>568</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>569</v>
-      </c>
-      <c r="C7" t="s">
-        <v>570</v>
       </c>
       <c r="E7" t="s">
         <v>559</v>
@@ -41714,7 +41712,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C8" t="s">
         <v>557</v>
@@ -41731,10 +41729,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C9" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E9" t="s">
         <v>559</v>
@@ -41745,13 +41743,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>572</v>
+      </c>
+      <c r="C10" t="s">
         <v>573</v>
       </c>
-      <c r="C10" t="s">
-        <v>574</v>
-      </c>
       <c r="E10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -41759,13 +41757,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C11" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E11" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -41792,13 +41790,13 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -41826,7 +41824,7 @@
         <v>493</v>
       </c>
       <c r="B2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C2" t="s">
         <v>557</v>
@@ -41843,10 +41841,10 @@
         <v>494</v>
       </c>
       <c r="B3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E3" t="s">
         <v>559</v>
@@ -41857,10 +41855,10 @@
         <v>495</v>
       </c>
       <c r="B4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E4" t="s">
         <v>559</v>
@@ -41871,10 +41869,10 @@
         <v>496</v>
       </c>
       <c r="B5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D5" t="s">
         <v>558</v>
@@ -41888,10 +41886,10 @@
         <v>497</v>
       </c>
       <c r="B6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E6" t="s">
         <v>559</v>
@@ -41902,10 +41900,10 @@
         <v>498</v>
       </c>
       <c r="B7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E7" t="s">
         <v>559</v>
@@ -41916,13 +41914,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
+        <v>572</v>
+      </c>
+      <c r="C8" t="s">
         <v>573</v>
       </c>
-      <c r="C8" t="s">
-        <v>574</v>
-      </c>
       <c r="E8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -41930,13 +41928,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -41950,31 +41948,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBDD5E6-0827-492A-B40E-0AE6B62CE499}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.75" style="7" customWidth="1"/>
-    <col min="3" max="3" width="27.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.75" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.77734375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="27.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" style="7" customWidth="1"/>
     <col min="5" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="25" customFormat="1">
       <c r="A1" s="22" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -41982,27 +41980,27 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="18" customFormat="1">
       <c r="A4" s="22" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -42010,13 +42008,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -42024,27 +42022,27 @@
         <v>2</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="18" customFormat="1">
       <c r="A8" s="22" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -42052,13 +42050,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -42066,41 +42064,41 @@
         <v>2</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="18" customFormat="1">
       <c r="A12" s="22" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="32.4">
       <c r="A13" s="13">
         <v>1</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -42108,13 +42106,13 @@
         <v>2</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -42122,16 +42120,16 @@
     </row>
     <row r="16" spans="1:4" s="18" customFormat="1">
       <c r="A16" s="22" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -42139,13 +42137,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -42153,27 +42151,27 @@
         <v>2</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="18" customFormat="1">
       <c r="A20" s="22" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -42181,13 +42179,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -42195,27 +42193,27 @@
         <v>2</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="18" customFormat="1" ht="17.25" thickBot="1">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="18" customFormat="1" ht="16.8" thickBot="1">
       <c r="A24" s="20" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -42223,13 +42221,13 @@
         <v>1</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -42237,13 +42235,13 @@
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -42251,13 +42249,13 @@
         <v>3</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -42265,27 +42263,27 @@
         <v>4</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="17.25" thickBot="1">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16.8" thickBot="1">
       <c r="A29" s="11">
         <v>5</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -42293,13 +42291,13 @@
         <v>6</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -42307,13 +42305,13 @@
         <v>7</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -42321,13 +42319,13 @@
         <v>8</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -42335,27 +42333,27 @@
         <v>9</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="17.25" thickBot="1">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16.8" thickBot="1">
       <c r="A34" s="11">
         <v>10</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -42373,289 +42371,289 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.25" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="7.21875" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="29.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="7.25" style="7"/>
+    <col min="1" max="1" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="7.21875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="18" customFormat="1" ht="17.25" thickBot="1">
+    <row r="1" spans="1:6" s="18" customFormat="1" ht="16.8" thickBot="1">
       <c r="A1" s="48" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C1" s="47" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D1" s="47" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E1" s="47" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F1" s="46" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="14" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="14" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E4" s="30"/>
       <c r="F4" s="29" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="42" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F5" s="39"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="14" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E7" s="30"/>
       <c r="F7" s="29" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="17.25" thickBot="1">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.8" thickBot="1">
       <c r="A8" s="11" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>600</v>
+      </c>
+      <c r="D8" s="28" t="s">
         <v>668</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>601</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>669</v>
       </c>
       <c r="E8" s="27"/>
       <c r="F8" s="26"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="38" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B9" s="37" t="s">
+        <v>637</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>604</v>
+      </c>
+      <c r="D9" s="35" t="s">
         <v>638</v>
       </c>
-      <c r="C9" s="36" t="s">
-        <v>605</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>639</v>
-      </c>
       <c r="E9" s="35" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F9" s="34"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="14" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="14" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B11" s="13" t="s">
+        <v>641</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="D11" s="31" t="s">
         <v>642</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>606</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>643</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="29" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="33" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>643</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="D12" s="31" t="s">
         <v>644</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>605</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>645</v>
-      </c>
       <c r="E12" s="31" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F12" s="32"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="14" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B14" s="13" t="s">
+        <v>647</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="D14" s="31" t="s">
         <v>648</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>603</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>649</v>
       </c>
       <c r="E14" s="30"/>
       <c r="F14" s="29" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="17.25" thickBot="1">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.8" thickBot="1">
       <c r="A15" s="11" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E15" s="27"/>
       <c r="F15" s="26"/>
